--- a/teaching/traditional_assets/database/data/netherlands/netherlands_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_apparel.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.7706422018348623</v>
+        <v>-0.8673965936739658</v>
       </c>
       <c r="H2">
-        <v>-0.7706422018348623</v>
+        <v>-0.8673965936739658</v>
       </c>
       <c r="I2">
-        <v>-0.6343062065667341</v>
+        <v>-0.8917274939172749</v>
       </c>
       <c r="J2">
-        <v>-0.5536343769396226</v>
+        <v>-0.8917274939172749</v>
       </c>
       <c r="K2">
-        <v>5.2</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="L2">
-        <v>0.05300713557594292</v>
+        <v>-1.175182481751825</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,73 +624,64 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01343648208469055</v>
       </c>
       <c r="X2">
-        <v>0.06020776380109406</v>
-      </c>
-      <c r="Z2">
-        <v>1.053397997387069</v>
-      </c>
-      <c r="AA2">
-        <v>-0.5831973439528362</v>
+        <v>0.06702908493975343</v>
       </c>
       <c r="AB2">
-        <v>0.05564756137734138</v>
-      </c>
-      <c r="AC2">
-        <v>-0.6388449053301776</v>
+        <v>0.05073555458025421</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>283.3</v>
       </c>
       <c r="AE2">
-        <v>93.12719432098308</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>93.12719432098308</v>
+        <v>283.3</v>
       </c>
       <c r="AG2">
-        <v>93.12719432098308</v>
+        <v>276.7</v>
       </c>
       <c r="AH2">
-        <v>0.1438197424567459</v>
+        <v>0.3657843770174306</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>2.384680134680135</v>
       </c>
       <c r="AJ2">
-        <v>0.1438197424567459</v>
+        <v>0.3603333767417632</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>2.466131907308378</v>
       </c>
       <c r="AL2">
-        <v>5.14</v>
+        <v>20.2</v>
       </c>
       <c r="AM2">
-        <v>5.124</v>
+        <v>20.175</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-4.234678624813154</v>
       </c>
       <c r="AO2">
-        <v>-15.81712062256809</v>
+        <v>-3.628712871287129</v>
       </c>
       <c r="AP2">
-        <v>-2.457181908205359</v>
+        <v>-4.136023916292974</v>
       </c>
       <c r="AQ2">
-        <v>-15.86651053864169</v>
+        <v>-3.633209417596035</v>
       </c>
     </row>
     <row r="3">
@@ -710,22 +701,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.7706422018348623</v>
+        <v>-0.8673965936739658</v>
       </c>
       <c r="H3">
-        <v>-0.7706422018348623</v>
+        <v>-0.8673965936739658</v>
       </c>
       <c r="I3">
-        <v>-0.6343062065667341</v>
+        <v>-0.8917274939172749</v>
       </c>
       <c r="J3">
-        <v>-0.5536343769396226</v>
+        <v>-0.8917274939172749</v>
       </c>
       <c r="K3">
-        <v>5.2</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.05300713557594292</v>
+        <v>-1.175182481751825</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -734,7 +725,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -743,73 +734,64 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01343648208469055</v>
       </c>
       <c r="X3">
-        <v>0.06020776380109406</v>
-      </c>
-      <c r="Z3">
-        <v>1.053397997387069</v>
-      </c>
-      <c r="AA3">
-        <v>-0.5831973439528362</v>
+        <v>0.06702908493975343</v>
       </c>
       <c r="AB3">
-        <v>0.05564756137734138</v>
-      </c>
-      <c r="AC3">
-        <v>-0.6388449053301776</v>
+        <v>0.05073555458025421</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>283.3</v>
       </c>
       <c r="AE3">
-        <v>93.12719432098308</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>93.12719432098308</v>
+        <v>283.3</v>
       </c>
       <c r="AG3">
-        <v>93.12719432098308</v>
+        <v>276.7</v>
       </c>
       <c r="AH3">
-        <v>0.1438197424567459</v>
+        <v>0.3657843770174306</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>2.384680134680135</v>
       </c>
       <c r="AJ3">
-        <v>0.1438197424567459</v>
+        <v>0.3603333767417632</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>2.466131907308378</v>
       </c>
       <c r="AL3">
-        <v>5.14</v>
+        <v>20.2</v>
       </c>
       <c r="AM3">
-        <v>5.124</v>
+        <v>20.175</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-4.234678624813154</v>
       </c>
       <c r="AO3">
-        <v>-15.81712062256809</v>
+        <v>-3.628712871287129</v>
       </c>
       <c r="AP3">
-        <v>-2.457181908205359</v>
+        <v>-4.136023916292974</v>
       </c>
       <c r="AQ3">
-        <v>-15.86651053864169</v>
+        <v>-3.633209417596035</v>
       </c>
     </row>
   </sheetData>
